--- a/src/main/resources/analytics/analytics.xlsx
+++ b/src/main/resources/analytics/analytics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Phone Number</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Message</t>
   </si>
   <si>
-    <t>987654</t>
+    <t>919686776447</t>
   </si>
   <si>
     <t>Success</t>
@@ -32,28 +32,13 @@
     <t/>
   </si>
   <si>
-    <t>76567890</t>
+    <t>917204965576</t>
   </si>
   <si>
-    <t>919686776447</t>
+    <t>919008657544</t>
   </si>
   <si>
-    <t>98766789</t>
-  </si>
-  <si>
-    <t>10000000000</t>
-  </si>
-  <si>
-    <t>Failure</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>1024873000</t>
-  </si>
-  <si>
-    <t>918660408323</t>
+    <t>917353921901</t>
   </si>
 </sst>
 </file>
@@ -98,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -159,50 +144,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
